--- a/data/excel_files_reduced/test_excel_5_reduced.xlsx
+++ b/data/excel_files_reduced/test_excel_5_reduced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/mvp/data/excel_files_clean/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/excel-2-python/data/excel_files_reduced/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E1C8AF-A090-434D-8B0E-9970025C1F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2381220-CCBA-B045-8D69-40F99E214C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Store</t>
   </si>
@@ -59,12 +59,6 @@
     <t>Unemployment</t>
   </si>
   <si>
-    <t>05-02-2010</t>
-  </si>
-  <si>
-    <t>12-02-2010</t>
-  </si>
-  <si>
     <t>Monthly Sales</t>
   </si>
   <si>
@@ -74,12 +68,6 @@
     <t>Sales Performance</t>
   </si>
   <si>
-    <t>Adjusted Sales</t>
-  </si>
-  <si>
-    <t>Holiday Impact</t>
-  </si>
-  <si>
     <t>Fuel Price Category</t>
   </si>
   <si>
@@ -87,12 +75,6 @@
   </si>
   <si>
     <t>Store Summary</t>
-  </si>
-  <si>
-    <t>Holiday Sales Ratio</t>
-  </si>
-  <si>
-    <t>Non-empty count</t>
   </si>
   <si>
     <t>Upper Fuel Price Category</t>
@@ -102,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,14 +97,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -186,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -194,10 +168,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,14 +477,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
@@ -517,21 +496,17 @@
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.1640625" customWidth="1"/>
-    <col min="19" max="19" width="24.33203125" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -553,45 +528,33 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
+      <c r="B2" s="5">
+        <v>40214</v>
       </c>
       <c r="C2">
         <v>1643690.9</v>
@@ -612,8 +575,8 @@
         <v>8.1059999999999999</v>
       </c>
       <c r="I2">
-        <f>SUMIF(B:B, CONCATENATE("*", TEXT(DATE(YEAR(B2), MONTH(B2), 1), "mm-yyyy"), "*"), C:C)</f>
-        <v>3285648.34</v>
+        <f>SUMIF(B:B, B2, C:C)</f>
+        <v>1643690.9</v>
       </c>
       <c r="J2">
         <f>AVERAGEIF(C:C, "&gt;100", E:E)</f>
@@ -623,45 +586,29 @@
         <f>IF(C2&gt;AVERAGE(C:C), "High", "Low")</f>
         <v>High</v>
       </c>
-      <c r="L2">
-        <f>IFERROR(C2/VLOOKUP(G2, G:G, 1, FALSE), C2)</f>
-        <v>7786.4483973840524</v>
-      </c>
-      <c r="M2">
-        <f>COUNTIFS(C:C, "&gt;1500000", D:D, "=1")</f>
-        <v>1</v>
-      </c>
-      <c r="N2" t="str">
+      <c r="L2" t="str">
         <f>IF(AND(F2&gt;2.5, F2&lt;=3), "Medium", IF(F2&gt;3, "High", "Low"))</f>
         <v>Medium</v>
       </c>
-      <c r="O2" t="str">
+      <c r="M2" t="str">
         <f>CONCATENATE(ROUND(MIN(E:E), 0), " - ", ROUND(MAX(E:E), 0))</f>
         <v>39 - 42</v>
       </c>
-      <c r="P2" t="str">
+      <c r="N2" t="str">
         <f>CONCATENATE("Store ", A2, "-", ROUND(AVERAGEIF(A:A, A2, C:C), 0))</f>
         <v>Store 1-1642824</v>
       </c>
-      <c r="Q2">
-        <f t="shared" ref="Q2:Q3" si="0">ROUND(SUMIFS(C:C, D:D, "=1") / SUM(C:C), 4)</f>
-        <v>0.49969999999999998</v>
-      </c>
-      <c r="R2">
-        <f>COUNTA(Q:Q)</f>
-        <v>3</v>
-      </c>
-      <c r="S2" t="str">
-        <f t="shared" ref="S2:S3" si="1">UPPER(N2)</f>
+      <c r="O2" t="str">
+        <f>UPPER(L2)</f>
         <v>MEDIUM</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
+      <c r="B3" s="5">
+        <v>40221</v>
       </c>
       <c r="C3">
         <v>1641957.44</v>
@@ -682,47 +629,31 @@
         <v>8.1059999999999999</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I4" si="2">SUMIF(B:B, CONCATENATE("*", TEXT(DATE(YEAR(B3), MONTH(B3), 1), "mm-yyyy"), "*"), C:C)</f>
-        <v>3285648.34</v>
+        <f t="shared" ref="I3" si="0">SUMIF(B:B, B3, C:C)</f>
+        <v>1641957.44</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J4" si="3">AVERAGEIF(C:C, "&gt;100", E:E)</f>
+        <f t="shared" ref="J3" si="1">AVERAGEIF(C:C, "&gt;100", E:E)</f>
         <v>40.409999999999997</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3" si="4">IF(C3&gt;AVERAGE(C:C), "High", "Low")</f>
+        <f t="shared" ref="K3" si="2">IF(C3&gt;AVERAGE(C:C), "High", "Low")</f>
         <v>Low</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3" si="5">IFERROR(C3/VLOOKUP(G3, G:G, 1, FALSE), C3)</f>
-        <v>7772.8677070235244</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3" si="6">COUNTIFS(C:C, "&gt;1500000", D:D, "=1")</f>
-        <v>1</v>
+      <c r="L3" t="str">
+        <f>IF(AND(F3&gt;2.5, F3&lt;=3), "Medium", IF(F3&gt;3, "High", "Low"))</f>
+        <v>Medium</v>
+      </c>
+      <c r="M3" t="str">
+        <f>CONCATENATE(ROUND(MIN(E:E), 0), " - ", ROUND(MAX(E:E), 0))</f>
+        <v>39 - 42</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3" si="7">IF(AND(F3&gt;2.5, F3&lt;=3), "Medium", IF(F3&gt;3, "High", "Low"))</f>
-        <v>Medium</v>
+        <f>CONCATENATE("Store ", A3, "-", ROUND(AVERAGEIF(A:A, A3, C:C), 0))</f>
+        <v>Store 1-1642824</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" ref="O3" si="8">CONCATENATE(ROUND(MIN(E:E), 0), " - ", ROUND(MAX(E:E), 0))</f>
-        <v>39 - 42</v>
-      </c>
-      <c r="P3" t="str">
-        <f t="shared" ref="P3" si="9">CONCATENATE("Store ", A3, "-", ROUND(AVERAGEIF(A:A, A3, C:C), 0))</f>
-        <v>Store 1-1642824</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" si="0"/>
-        <v>0.49969999999999998</v>
-      </c>
-      <c r="R3">
-        <f t="shared" ref="R3" si="10">COUNTA(Q:Q)</f>
-        <v>3</v>
-      </c>
-      <c r="S3" t="str">
-        <f t="shared" si="1"/>
+        <f>UPPER(L3)</f>
         <v>MEDIUM</v>
       </c>
     </row>
